--- a/PBI-temp-text.xlsx
+++ b/PBI-temp-text.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Treikri\Downloads\StatCan (1)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\PBI-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2619D4-7E3F-4DC9-AAC6-D2060DA9C673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14722D56-1C12-431D-8674-67D26E7F8045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F83DCF5E-45ED-43E5-9C4E-BF6ED6C71F73}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{F83DCF5E-45ED-43E5-9C4E-BF6ED6C71F73}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Filter_btn_tool-tip</t>
   </si>
@@ -67,13 +67,61 @@
   </si>
   <si>
     <t>Open page navigation pane</t>
+  </si>
+  <si>
+    <t>PgNav_group-alt</t>
+  </si>
+  <si>
+    <t>Title_StatcanID-alt</t>
+  </si>
+  <si>
+    <t>Page navigation pane.</t>
+  </si>
+  <si>
+    <t>Info_btn_alt</t>
+  </si>
+  <si>
+    <t>Filter_btn-alt</t>
+  </si>
+  <si>
+    <t>Select to view additional information.</t>
+  </si>
+  <si>
+    <t>Select to open filter pane.</t>
+  </si>
+  <si>
+    <t>Select to open page navigation pane.</t>
+  </si>
+  <si>
+    <t>Statistics Canada signature. Select to go to Statistics Canada website.</t>
+  </si>
+  <si>
+    <t>Select for additional information</t>
+  </si>
+  <si>
+    <t>Close-btn-alt</t>
+  </si>
+  <si>
+    <t>Select to close pane.</t>
+  </si>
+  <si>
+    <t>Apply-btn-alt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select to apply filters. </t>
+  </si>
+  <si>
+    <t>Pg-selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page selection menu. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +138,21 @@
     <font>
       <sz val="9"/>
       <color rgb="FFA31515"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -114,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -122,6 +185,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,55 +503,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1032A8D-423C-4121-971E-AD19C1C76ACC}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="24" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.36328125" customWidth="1"/>
+    <col min="6" max="6" width="33.90625" customWidth="1"/>
+    <col min="7" max="7" width="18.26953125" customWidth="1"/>
+    <col min="8" max="8" width="22.7265625" customWidth="1"/>
+    <col min="9" max="9" width="18.6328125" customWidth="1"/>
+    <col min="10" max="24" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -501,12 +607,12 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="27" width="40.7109375" customWidth="1"/>
+    <col min="1" max="27" width="40.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>

--- a/PBI-temp-text.xlsx
+++ b/PBI-temp-text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\PBI-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14722D56-1C12-431D-8674-67D26E7F8045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB901F4-8542-48C1-B880-20DC1FA1B30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{F83DCF5E-45ED-43E5-9C4E-BF6ED6C71F73}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F83DCF5E-45ED-43E5-9C4E-BF6ED6C71F73}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +156,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -177,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -189,6 +195,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,47 +512,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1032A8D-423C-4121-971E-AD19C1C76ACC}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.36328125" customWidth="1"/>
-    <col min="6" max="6" width="33.90625" customWidth="1"/>
-    <col min="7" max="7" width="18.26953125" customWidth="1"/>
-    <col min="8" max="8" width="22.7265625" customWidth="1"/>
-    <col min="9" max="9" width="18.6328125" customWidth="1"/>
-    <col min="10" max="24" width="30.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="54.42578125" customWidth="1"/>
+    <col min="9" max="11" width="30.7109375" customWidth="1"/>
+    <col min="18" max="24" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -558,38 +562,38 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -607,12 +611,12 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="27" width="40.7265625" customWidth="1"/>
+    <col min="1" max="27" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,7 +636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>

--- a/PBI-temp-text.xlsx
+++ b/PBI-temp-text.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\PBI-template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Treikri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB901F4-8542-48C1-B880-20DC1FA1B30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92B34B30-8396-4710-95A4-49193351C69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F83DCF5E-45ED-43E5-9C4E-BF6ED6C71F73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F83DCF5E-45ED-43E5-9C4E-BF6ED6C71F73}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Filter_btn_tool-tip</t>
   </si>
@@ -45,24 +45,12 @@
     <t>Open filter pane</t>
   </si>
   <si>
-    <t>Filter_btn_tool-tip-alt</t>
-  </si>
-  <si>
     <t>Info_btn_tool-tip</t>
   </si>
   <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Open filter pane.</t>
-  </si>
-  <si>
     <t>PgNav_btn_tool-tip</t>
   </si>
   <si>
-    <t>Open page navigation</t>
-  </si>
-  <si>
     <t>PgNav_btn-alt</t>
   </si>
   <si>
@@ -115,31 +103,28 @@
   </si>
   <si>
     <t xml:space="preserve">Page selection menu. </t>
+  </si>
+  <si>
+    <t>StatCan-URL</t>
+  </si>
+  <si>
+    <t>https://www.statcan.gc.ca/en/start</t>
+  </si>
+  <si>
+    <t>https://www.statcan.gc.ca/fr/debut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFA31515"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -183,19 +168,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1032A8D-423C-4121-971E-AD19C1C76ACC}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,74 +506,80 @@
     <col min="18" max="24" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="L2" t="s">
         <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -605,10 +590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7334BE0B-AE5C-4479-ADCC-9D6871D90F84}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,44 +601,80 @@
     <col min="1" max="27" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/PBI-temp-text.xlsx
+++ b/PBI-temp-text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Treikri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92B34B30-8396-4710-95A4-49193351C69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57E18D6D-D0D4-4188-AC09-4D6E60AD40AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F83DCF5E-45ED-43E5-9C4E-BF6ED6C71F73}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="9024" xr2:uid="{F83DCF5E-45ED-43E5-9C4E-BF6ED6C71F73}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>Filter_btn_tool-tip</t>
   </si>
@@ -111,7 +111,16 @@
     <t>https://www.statcan.gc.ca/en/start</t>
   </si>
   <si>
-    <t>https://www.statcan.gc.ca/fr/debut</t>
+    <t>Close-btn</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Apply-btn</t>
+  </si>
+  <si>
+    <t>Apply filters</t>
   </si>
 </sst>
 </file>
@@ -489,24 +498,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1032A8D-423C-4121-971E-AD19C1C76ACC}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="54.42578125" customWidth="1"/>
-    <col min="9" max="11" width="30.7109375" customWidth="1"/>
-    <col min="18" max="24" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="54.44140625" customWidth="1"/>
+    <col min="9" max="10" width="30.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" customWidth="1"/>
+    <col min="18" max="24" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,8 +554,14 @@
       <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -580,6 +597,12 @@
       </c>
       <c r="L2" t="s">
         <v>23</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -590,18 +613,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7334BE0B-AE5C-4479-ADCC-9D6871D90F84}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="27" width="40.7109375" customWidth="1"/>
+    <col min="1" max="27" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,8 +661,14 @@
       <c r="L1" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -674,7 +703,13 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/PBI-temp-text.xlsx
+++ b/PBI-temp-text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Treikri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57E18D6D-D0D4-4188-AC09-4D6E60AD40AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4FDE916-7BFA-4FF5-B9B6-0E424B4C3CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="9024" xr2:uid="{F83DCF5E-45ED-43E5-9C4E-BF6ED6C71F73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F83DCF5E-45ED-43E5-9C4E-BF6ED6C71F73}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Filter_btn_tool-tip</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Apply filters</t>
+  </si>
+  <si>
+    <t>Statistics Canada signature. This links to the Statistics Canada website and opens in a new tab.</t>
   </si>
 </sst>
 </file>
@@ -500,24 +503,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1032A8D-423C-4121-971E-AD19C1C76ACC}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="7" width="30.6640625" customWidth="1"/>
-    <col min="8" max="8" width="54.44140625" customWidth="1"/>
-    <col min="9" max="10" width="30.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" customWidth="1"/>
-    <col min="18" max="24" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="54.42578125" customWidth="1"/>
+    <col min="9" max="10" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="18" max="24" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -584,7 +587,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>17</v>
@@ -619,12 +622,12 @@
       <selection activeCell="F1" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="27" width="40.6640625" customWidth="1"/>
+    <col min="1" max="27" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>

--- a/PBI-temp-text.xlsx
+++ b/PBI-temp-text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Treikri\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4FDE916-7BFA-4FF5-B9B6-0E424B4C3CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAC5D8A6-BC3A-472B-A570-897471117F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F83DCF5E-45ED-43E5-9C4E-BF6ED6C71F73}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F83DCF5E-45ED-43E5-9C4E-BF6ED6C71F73}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Filter_btn_tool-tip</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Select to open page navigation pane.</t>
   </si>
   <si>
-    <t>Statistics Canada signature. Select to go to Statistics Canada website.</t>
-  </si>
-  <si>
     <t>Select for additional information</t>
   </si>
   <si>
@@ -124,13 +121,55 @@
   </si>
   <si>
     <t>Statistics Canada signature. This links to the Statistics Canada website and opens in a new tab.</t>
+  </si>
+  <si>
+    <t>Ouvrir le volet de filtrage</t>
+  </si>
+  <si>
+    <t>Sélectionner cette option pour ouvrir le volet de filtrage</t>
+  </si>
+  <si>
+    <t>Ouvrir le volet de navigation des pages</t>
+  </si>
+  <si>
+    <t>Sélectionner pour ouvrir le volet de navigation des pages</t>
+  </si>
+  <si>
+    <t>Volet de navigation des pages</t>
+  </si>
+  <si>
+    <t>Sélectionner pour obtenir des renseignements supplémentaires</t>
+  </si>
+  <si>
+    <t>Sélectionner pour afficher des renseignements supplémentaires</t>
+  </si>
+  <si>
+    <t>Signature de Statistique Canada. Ce lien renvoie au site Web de Statistique Canada et s’ouvre dans un nouvel onglet.</t>
+  </si>
+  <si>
+    <t>Sélectionnez pour fermer le volet.</t>
+  </si>
+  <si>
+    <t>Sélectionner pour appliquer des filtres.</t>
+  </si>
+  <si>
+    <t>Menu de sélection des pages.</t>
+  </si>
+  <si>
+    <t>Fermer</t>
+  </si>
+  <si>
+    <t>Appliquer les filtres</t>
+  </si>
+  <si>
+    <t>https://www.statcan.gc.ca/fr/debut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +198,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -177,18 +224,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -503,24 +553,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1032A8D-423C-4121-971E-AD19C1C76ACC}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="54.42578125" customWidth="1"/>
-    <col min="9" max="10" width="30.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" customWidth="1"/>
-    <col min="18" max="24" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="54.44140625" customWidth="1"/>
+    <col min="9" max="10" width="30.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.5546875" customWidth="1"/>
+    <col min="18" max="24" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,25 +596,25 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -581,31 +631,31 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -618,16 +668,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7334BE0B-AE5C-4479-ADCC-9D6871D90F84}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="27" width="40.7109375" customWidth="1"/>
+    <col min="1" max="27" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,69 +703,73 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{60A1A6BB-1EE1-4269-A341-4AF066C4F97F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>